--- a/Data/aearep-1661/candidatepackages.xlsx
+++ b/Data/aearep-1661/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,12 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
@@ -43,51 +37,30 @@
     <t>cibar</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>title</t>
   </si>
   <si>
     <t>leebounds</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>ineq</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>betterbar</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>hbar</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>bys</t>
   </si>
   <si>
     <t>pre</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>stack</t>
   </si>
   <si>
@@ -103,24 +76,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1661</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1661/128261/programs</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1661/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>1_setup.do</t>
   </si>
   <si>
@@ -131,12 +92,6 @@
   </si>
   <si>
     <t>4_Figure1.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -180,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -188,13 +143,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -214,7 +169,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -226,7 +181,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -238,7 +193,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -250,7 +205,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -262,7 +217,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -274,10 +229,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>499</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D8"/>
     </row>
@@ -286,10 +241,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>160</v>
+        <v>522</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.17256198823451996</v>
       </c>
       <c r="D9"/>
     </row>
@@ -298,10 +253,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>267</v>
+        <v>556</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.18380165100097656</v>
       </c>
       <c r="D10"/>
     </row>
@@ -310,10 +265,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>279</v>
+        <v>712</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D11"/>
     </row>
@@ -322,10 +277,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>468</v>
+        <v>749</v>
       </c>
       <c r="C12">
-        <v>0.15517240762710571</v>
+        <v>0.24760331213474274</v>
       </c>
       <c r="D12"/>
     </row>
@@ -334,10 +289,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>565</v>
+        <v>889</v>
       </c>
       <c r="C13">
-        <v>0.18733422458171844</v>
+        <v>0.29388430714607239</v>
       </c>
       <c r="D13"/>
     </row>
@@ -346,10 +301,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>574</v>
+        <v>1306</v>
       </c>
       <c r="C14">
-        <v>0.19031830132007599</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D14"/>
     </row>
@@ -358,10 +313,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>722</v>
+        <v>1428</v>
       </c>
       <c r="C15">
-        <v>0.23938992619514465</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D15"/>
     </row>
@@ -370,120 +325,12 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>745</v>
+        <v>2226</v>
       </c>
       <c r="C16">
-        <v>0.24701590836048126</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>868</v>
-      </c>
-      <c r="C17">
-        <v>0.28779840469360352</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>985</v>
-      </c>
-      <c r="C18">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1124</v>
-      </c>
-      <c r="C19">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1472</v>
-      </c>
-      <c r="C20">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1553</v>
-      </c>
-      <c r="C21">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1798</v>
-      </c>
-      <c r="C22">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1817</v>
-      </c>
-      <c r="C23">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1859</v>
-      </c>
-      <c r="C24">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2330</v>
-      </c>
-      <c r="C25">
-        <v>0.77254641056060791</v>
-      </c>
-      <c r="D25"/>
     </row>
   </sheetData>
 </worksheet>
@@ -491,79 +338,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
